--- a/05 UAT Result and Evidence/OPS01-01 Add Customer, Supplier, Asset.xlsx
+++ b/05 UAT Result and Evidence/OPS01-01 Add Customer, Supplier, Asset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365dipostar.sharepoint.com/sites/PJ_NewOPLSystemImplementation/Shared Documents/UAT/05 UAT Result and Evidence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365bsi-my.sharepoint.com/personal/bsi90736_bsi_co_id/Documents/iFin-Notes/05 UAT Result and Evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2041" documentId="13_ncr:1_{AD0090A1-15C9-4128-A2CD-9E5B66DB86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E080DCE-E134-4215-863C-F4AB272289EF}"/>
+  <xr:revisionPtr revIDLastSave="2042" documentId="13_ncr:1_{AD0090A1-15C9-4128-A2CD-9E5B66DB86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE84ABF-6FA2-4D54-BA5C-B0DC15E5ECCB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{489200D9-8038-4F3F-8D8A-35128F02D1FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{489200D9-8038-4F3F-8D8A-35128F02D1FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1433,6 +1433,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1477,6 +1484,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1521,6 +1535,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1565,6 +1586,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1609,6 +1637,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1653,6 +1688,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1697,6 +1739,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1741,6 +1790,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2120,14 +2176,14 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3202,15 +3258,15 @@
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3234,7 +3290,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -4430,21 +4486,21 @@
   </sheetPr>
   <dimension ref="A1:CQ769"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE135" sqref="AE135"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="37" customWidth="1"/>
-    <col min="2" max="95" width="3.453125" style="26" customWidth="1"/>
-    <col min="96" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="15.85546875" style="37" customWidth="1"/>
+    <col min="2" max="95" width="3.42578125" style="26" customWidth="1"/>
+    <col min="96" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" ht="15">
       <c r="A1" s="25"/>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:95" ht="15">
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
@@ -4496,7 +4552,7 @@
       <c r="AU2" s="96"/>
       <c r="AV2" s="96"/>
     </row>
-    <row r="3" spans="1:95" ht="28">
+    <row r="3" spans="1:95" ht="30">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
@@ -4550,7 +4606,7 @@
       <c r="AU3" s="97"/>
       <c r="AV3" s="97"/>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:95" ht="15">
       <c r="A5" s="27" t="s">
         <v>100</v>
       </c>
@@ -9072,7 +9128,7 @@
       <c r="AV334" s="32"/>
       <c r="CQ334" s="32"/>
     </row>
-    <row r="335" spans="1:95" ht="202" customHeight="1">
+    <row r="335" spans="1:95" ht="201.95" customHeight="1">
       <c r="A335" s="33"/>
       <c r="B335" s="34"/>
       <c r="C335" s="34"/>
@@ -11096,7 +11152,7 @@
       <c r="AV590" s="32"/>
       <c r="CQ590" s="32"/>
     </row>
-    <row r="591" spans="1:95" ht="221.5" customHeight="1">
+    <row r="591" spans="1:95" ht="221.45" customHeight="1">
       <c r="A591" s="33"/>
       <c r="B591" s="34"/>
       <c r="C591" s="34"/>
@@ -12666,15 +12722,15 @@
       <selection activeCell="E5" sqref="E5:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -12698,7 +12754,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -12798,7 +12854,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:15" ht="87">
+    <row r="6" spans="1:15" ht="105">
       <c r="A6" s="52"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -12828,7 +12884,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="87">
+    <row r="8" spans="1:15" ht="105">
       <c r="A8" s="39"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -12858,7 +12914,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:15" ht="72.5">
+    <row r="10" spans="1:15" ht="90">
       <c r="A10" s="52"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -12888,7 +12944,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
     </row>
-    <row r="12" spans="1:15" ht="130.5">
+    <row r="12" spans="1:15" ht="135">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -12918,7 +12974,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
     </row>
-    <row r="14" spans="1:15" ht="58">
+    <row r="14" spans="1:15" ht="60">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -12948,7 +13004,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
     </row>
-    <row r="16" spans="1:15" ht="72.5">
+    <row r="16" spans="1:15" ht="90">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -12978,7 +13034,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="72.5">
+    <row r="18" spans="1:11" ht="90">
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -13008,7 +13064,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="1:11" ht="72.5">
+    <row r="20" spans="1:11" ht="90">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -14440,15 +14496,15 @@
       <selection activeCell="E5" sqref="E5:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14472,7 +14528,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -14572,7 +14628,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:15" ht="101.5">
+    <row r="6" spans="1:15" ht="120">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -14610,7 +14666,7 @@
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="101.5">
+    <row r="8" spans="1:15" ht="120">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -14648,7 +14704,7 @@
       <c r="N9" s="38"/>
       <c r="O9" s="38"/>
     </row>
-    <row r="10" spans="1:15" ht="101.5">
+    <row r="10" spans="1:15" ht="120">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -14686,7 +14742,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
     </row>
-    <row r="12" spans="1:15" ht="101.5">
+    <row r="12" spans="1:15" ht="120">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -14724,7 +14780,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="1:15" ht="101.5">
+    <row r="14" spans="1:15" ht="120">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -14750,7 +14806,7 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
     </row>
-    <row r="16" spans="1:15" ht="101.5">
+    <row r="16" spans="1:15" ht="120">
       <c r="A16" s="54"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -14776,7 +14832,7 @@
       <c r="H17" s="54"/>
       <c r="I17" s="54"/>
     </row>
-    <row r="18" spans="1:9" ht="101.5">
+    <row r="18" spans="1:9" ht="120">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -14802,7 +14858,7 @@
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:9" ht="101.5">
+    <row r="20" spans="1:9" ht="120">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -14828,7 +14884,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" ht="101.5">
+    <row r="22" spans="1:9" ht="120">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -14854,7 +14910,7 @@
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
     </row>
-    <row r="24" spans="1:9" ht="72.5">
+    <row r="24" spans="1:9" ht="90">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -14880,7 +14936,7 @@
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="1:9" ht="72.5">
+    <row r="26" spans="1:9" ht="90">
       <c r="A26" s="54"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -14906,7 +14962,7 @@
       <c r="H27" s="54"/>
       <c r="I27" s="54"/>
     </row>
-    <row r="28" spans="1:9" ht="72.5">
+    <row r="28" spans="1:9" ht="90">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -14932,7 +14988,7 @@
       <c r="H29" s="54"/>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:9" ht="72.5">
+    <row r="30" spans="1:9" ht="90">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -14958,7 +15014,7 @@
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
     </row>
-    <row r="32" spans="1:9" ht="72.5">
+    <row r="32" spans="1:9" ht="90">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -15267,15 +15323,15 @@
       <selection activeCell="E5" sqref="E5:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -15299,7 +15355,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
@@ -15399,7 +15455,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:15" ht="101.5">
+    <row r="6" spans="1:15" ht="120">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -15437,7 +15493,7 @@
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="101.5">
+    <row r="8" spans="1:15" ht="120">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -15475,7 +15531,7 @@
       <c r="N9" s="38"/>
       <c r="O9" s="38"/>
     </row>
-    <row r="10" spans="1:15" ht="101.5">
+    <row r="10" spans="1:15" ht="120">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -15513,7 +15569,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
     </row>
-    <row r="12" spans="1:15" ht="101.5">
+    <row r="12" spans="1:15" ht="120">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -15551,7 +15607,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="1:15" ht="116">
+    <row r="14" spans="1:15" ht="120">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -15589,7 +15645,7 @@
       <c r="N15" s="38"/>
       <c r="O15" s="38"/>
     </row>
-    <row r="16" spans="1:15" ht="101.5">
+    <row r="16" spans="1:15" ht="105">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -16159,19 +16215,19 @@
       <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="37" customWidth="1"/>
-    <col min="2" max="49" width="3.453125" style="26" customWidth="1"/>
-    <col min="50" max="50" width="52.7265625" style="26" customWidth="1"/>
-    <col min="51" max="95" width="3.453125" style="26" customWidth="1"/>
-    <col min="96" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="15.85546875" style="37" customWidth="1"/>
+    <col min="2" max="49" width="3.42578125" style="26" customWidth="1"/>
+    <col min="50" max="50" width="52.7109375" style="26" customWidth="1"/>
+    <col min="51" max="95" width="3.42578125" style="26" customWidth="1"/>
+    <col min="96" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" ht="15">
       <c r="A1" s="25"/>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:95" ht="15">
       <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
@@ -16225,7 +16281,7 @@
       <c r="AU2" s="96"/>
       <c r="AV2" s="96"/>
     </row>
-    <row r="3" spans="1:95" ht="55" customHeight="1">
+    <row r="3" spans="1:95" ht="54.95" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
@@ -16279,7 +16335,7 @@
       <c r="AU3" s="97"/>
       <c r="AV3" s="97"/>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:95" ht="15">
       <c r="A5" s="27" t="s">
         <v>100</v>
       </c>
@@ -17811,7 +17867,7 @@
       <c r="AV160" s="32"/>
       <c r="CQ160" s="32"/>
     </row>
-    <row r="161" spans="1:95" ht="14.5">
+    <row r="161" spans="1:95" ht="15">
       <c r="A161" s="31"/>
       <c r="F161" s="56"/>
       <c r="AV161" s="32"/>
@@ -18784,7 +18840,7 @@
       <c r="CP280" s="29"/>
       <c r="CQ280" s="30"/>
     </row>
-    <row r="281" spans="1:95" ht="14.5">
+    <row r="281" spans="1:95" ht="15">
       <c r="A281" s="31"/>
       <c r="K281"/>
       <c r="AV281" s="32"/>
@@ -19226,7 +19282,7 @@
       <c r="AV331" s="32"/>
       <c r="CQ331" s="32"/>
     </row>
-    <row r="332" spans="1:95" ht="14.5">
+    <row r="332" spans="1:95" ht="15">
       <c r="A332" s="31"/>
       <c r="O332"/>
       <c r="AV332" s="32"/>
@@ -19302,7 +19358,7 @@
       <c r="AV346" s="32"/>
       <c r="CQ346" s="32"/>
     </row>
-    <row r="347" spans="1:95" ht="179.15" customHeight="1">
+    <row r="347" spans="1:95" ht="179.1" customHeight="1">
       <c r="A347" s="33"/>
       <c r="B347" s="34"/>
       <c r="C347" s="34"/>
@@ -24788,6 +24844,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC48E16567E1D34D8B0907037ED2122D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7198d6e6b33a4d5f691aef6e919d14c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="082b249c-3e96-4a7c-9ff2-21fd1dcff023" xmlns:ns3="a73fd218-8bca-4422-add3-bf5da46cbfd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70608b7b522b88a2cf49d229e5d3aa78" ns2:_="" ns3:_="">
     <xsd:import namespace="082b249c-3e96-4a7c-9ff2-21fd1dcff023"/>
@@ -25010,15 +25075,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24E3265-BC96-4F3A-999A-3F508F7A552D}">
   <ds:schemaRefs>
@@ -25037,6 +25093,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2E120-0C31-4CAA-BE47-EB1E8A770F3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13457B60-87C9-463D-9B66-3401FC4E2864}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25053,12 +25117,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2E120-0C31-4CAA-BE47-EB1E8A770F3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>